--- a/backend/traffic law lexeye.xlsx
+++ b/backend/traffic law lexeye.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAJI LAPTOP\Desktop\LexEye\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="464">
   <si>
     <t>Field</t>
   </si>
@@ -47,6 +47,9 @@
     <t>Category</t>
   </si>
   <si>
+    <t>Traffic and Road Safety Offenses</t>
+  </si>
+  <si>
     <t>Jurisdiction</t>
   </si>
   <si>
@@ -84,7 +87,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -95,7 +98,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -105,7 +108,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -116,7 +119,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -126,7 +129,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -155,6 +158,9 @@
     <t>PPC Section 304A – Causing Death by Negligence</t>
   </si>
   <si>
+    <t>Negligence and Accidental Death Offenses</t>
+  </si>
+  <si>
     <t>This section applies when a person causes the death of another by doing a negligent act that does not amount to culpable homicide. It covers situations such as medical negligence, careless driving, or unsafe work practices that accidentally result in death. The key point is the absence of intent to kill.</t>
   </si>
   <si>
@@ -171,7 +177,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -182,7 +188,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -192,7 +198,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -203,7 +209,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -213,7 +219,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -233,6 +239,9 @@
     <t>PPC Section 320 – Qatl-i-Khata (Causing Death by Mistake)</t>
   </si>
   <si>
+    <t>Accidental and Mistaken Death Offenses</t>
+  </si>
+  <si>
     <t>This section deals with causing the death of a person unintentionally or by mistake. It applies when someone, without any intention to cause harm or death, accidentally kills another person through a careless or mistaken act. The law treats such cases differently from intentional murder, focusing on restitution and compensation rather than revenge.</t>
   </si>
   <si>
@@ -249,7 +258,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -260,7 +269,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -270,7 +279,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -281,7 +290,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -291,7 +300,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -311,6 +320,9 @@
     <t>PPC Section 322 – Qisas for Hurt</t>
   </si>
   <si>
+    <t>Physical Injury and Bodily Harm Offenses</t>
+  </si>
+  <si>
     <t>This section deals with cases where a person voluntarily causes hurt or bodily injury to another. Depending on the nature of the injury and intention, the offender may face punishment under Qisas (equal retaliation), Diyat (monetary compensation), or imprisonment with fine. It ensures that justice is provided fairly according to the seriousness of the harm caused.</t>
   </si>
   <si>
@@ -327,7 +339,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -338,7 +350,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -348,7 +360,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -359,7 +371,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -369,7 +381,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -408,7 +420,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -419,7 +431,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -429,7 +441,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -440,7 +452,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -450,7 +462,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -486,7 +498,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -497,7 +509,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -507,7 +519,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -518,7 +530,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -528,7 +540,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -548,6 +560,9 @@
     <t>PPC Section 338 – Qisas for Grievous Hurt</t>
   </si>
   <si>
+    <t>Hurting Others / Serious Injury</t>
+  </si>
+  <si>
     <t>This law deals with intentionally causing serious or major injury to someone. Depending on how bad the injury is, the punishment can be equal retaliation (Qisas), fixed money compensation (Arsh), or jail with a fine. It ensures the punishment fits the severity of the injury.</t>
   </si>
   <si>
@@ -564,7 +579,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -575,7 +590,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -585,7 +600,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -596,7 +611,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -606,7 +621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -648,7 +663,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -659,7 +674,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -669,7 +684,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -697,7 +712,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -721,7 +736,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -732,7 +747,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -742,7 +757,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -767,7 +782,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -791,7 +806,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -802,7 +817,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -812,7 +827,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -840,7 +855,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -864,7 +879,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -875,7 +890,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -911,7 +926,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -922,7 +937,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -932,7 +947,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -960,7 +975,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1006,7 +1021,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1102,7 +1117,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1113,7 +1128,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1149,7 +1164,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1160,7 +1175,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1217,7 +1232,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1228,7 +1243,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1248,6 +1263,9 @@
     <t>Provincial Rule – Missing Documents</t>
   </si>
   <si>
+    <t>Traffic and Vehicle Regulation Offenses</t>
+  </si>
+  <si>
     <t>This rule covers driving a vehicle without carrying the required documents, such as registration papers, driving license, or vehicle tax token. Missing or invalid documents can cause legal trouble and vehicle seizure.</t>
   </si>
   <si>
@@ -1264,7 +1282,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1275,7 +1293,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1337,6 +1355,9 @@
     <t>PPC Section 471 – Using Forged Documents as Genuine</t>
   </si>
   <si>
+    <t>Fraud and Forgery Offenses</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">2025 </t>
     </r>
@@ -1345,7 +1366,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1369,7 +1390,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1380,7 +1401,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1408,7 +1429,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1418,7 +1439,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1437,7 +1458,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1461,7 +1482,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1497,7 +1518,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1508,7 +1529,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1530,7 +1551,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1540,7 +1561,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1561,7 +1582,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1572,7 +1593,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1597,7 +1618,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1607,7 +1628,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1615,6 +1636,9 @@
     </r>
   </si>
   <si>
+    <t>Vehicle Safety and Maintenance Offenses</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">This rule applies to drivers using a vehicle that is </t>
     </r>
@@ -1623,7 +1647,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1633,7 +1657,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1654,7 +1678,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1665,7 +1689,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1690,7 +1714,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1700,7 +1724,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1721,7 +1745,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1732,7 +1756,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1770,6 +1794,9 @@
     <t>Provincial Motor Vehicle Ordinance; Vehicle Lighting and Equipment Rules; City Traffic Management Regulations</t>
   </si>
   <si>
+    <t>Noise and Environmental Offenses</t>
+  </si>
+  <si>
     <t>This rule prohibits using loud, pressure horns or modified silencers that cause noise pollution and disturb public peace. It applies to cars, motorcycles, buses, and other vehicles.</t>
   </si>
   <si>
@@ -1791,6 +1818,9 @@
     <t>Provincial Motor Vehicle Ordinance; Environmental Protection Act; City Traffic Noise Control Regulations</t>
   </si>
   <si>
+    <t>Vehicle Appearance and Safety Offenses</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">This rule applies to vehicles with </t>
     </r>
@@ -1799,7 +1829,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1809,7 +1839,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1830,7 +1860,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1841,7 +1871,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1864,6 +1894,9 @@
     <t>Twelfth Schedule — Violations &amp; Penalties under Section 116-A of the Ordinance. (City Laws Associates)</t>
   </si>
   <si>
+    <t>Public Transport Offense / Passenger Over-loading in Public Service Vehicles</t>
+  </si>
+  <si>
     <t>Provincial (example: Punjab – similar provisions in other provinces)</t>
   </si>
   <si>
@@ -1897,6 +1930,9 @@
     <t>Section 116-A (spot fine provision) &amp; the Twelfth Schedule (Violations &amp; Penalties) of the Ordinance. (Punjab Laws)</t>
   </si>
   <si>
+    <t>Public Transport / Passenger Over-loading Offense</t>
+  </si>
+  <si>
     <t>Provincial (Applies in each province under its Motor Vehicles Ordinance)</t>
   </si>
   <si>
@@ -1924,6 +1960,9 @@
     <t>Motor Vehicle Fitness &amp; Inspection Rules; Provincial Transport Permit Rules; City Traffic Safety Regulations</t>
   </si>
   <si>
+    <t>Goods Transport and Load Management Offenses</t>
+  </si>
+  <si>
     <t>Provincial (applies under city and provincial transport and traffic laws)</t>
   </si>
   <si>
@@ -1935,7 +1974,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1951,7 +1990,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1961,7 +2000,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1972,7 +2011,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1982,7 +2021,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1998,7 +2037,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2016,7 +2055,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2041,7 +2080,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2051,7 +2090,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2059,6 +2098,9 @@
     </r>
   </si>
   <si>
+    <t>Commercial Vehicle Operation Offenses</t>
+  </si>
+  <si>
     <t>Provincial (applies under city and provincial transport and traffic departments)</t>
   </si>
   <si>
@@ -2070,7 +2112,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2080,7 +2122,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2091,7 +2133,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2101,7 +2143,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2117,7 +2159,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2135,7 +2177,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2146,7 +2188,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2171,7 +2213,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2181,7 +2223,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2189,6 +2231,9 @@
     </r>
   </si>
   <si>
+    <t>Road Discipline and Public Safety Offenses</t>
+  </si>
+  <si>
     <t>Provincial (applies under city and provincial traffic police regulations)</t>
   </si>
   <si>
@@ -2200,7 +2245,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2210,7 +2255,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2244,7 +2289,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2254,7 +2299,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2262,6 +2307,9 @@
     </r>
   </si>
   <si>
+    <t>Obedience to Traffic Authorities and Public Safety</t>
+  </si>
+  <si>
     <t>Provincial (applies under city and provincial traffic enforcement laws)</t>
   </si>
   <si>
@@ -2273,7 +2321,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2283,7 +2331,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2313,7 +2361,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2324,7 +2372,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2332,6 +2380,9 @@
     </r>
   </si>
   <si>
+    <t>Public Conduct and Road Safety Offenses</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">2025 </t>
     </r>
@@ -2340,7 +2391,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2356,7 +2407,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2366,7 +2417,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2387,7 +2438,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2398,7 +2449,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2422,7 +2473,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2433,7 +2484,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2441,6 +2492,9 @@
     </r>
   </si>
   <si>
+    <t>Road Safety and Emergency Response Offenses</t>
+  </si>
+  <si>
     <t>Provincial (applies under city and provincial traffic enforcement and road safety laws)</t>
   </si>
   <si>
@@ -2452,7 +2506,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2462,7 +2516,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2483,7 +2537,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2494,7 +2548,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2504,7 +2558,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2515,7 +2569,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2543,7 +2597,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2553,7 +2607,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2564,7 +2618,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2572,6 +2626,9 @@
     </r>
   </si>
   <si>
+    <t>Motorway Conduct and Driving Regulations</t>
+  </si>
+  <si>
     <t>Federal (applies on all national highways and motorways across Pakistan)</t>
   </si>
   <si>
@@ -2583,7 +2640,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2599,7 +2656,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2609,7 +2666,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2642,7 +2699,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2653,7 +2710,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2661,6 +2718,9 @@
     </r>
   </si>
   <si>
+    <t>Driving Conduct and Lane Discipline Offenses</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">This rule applies to </t>
     </r>
@@ -2669,7 +2729,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2679,7 +2739,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2709,7 +2769,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2720,7 +2780,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2728,6 +2788,9 @@
     </r>
   </si>
   <si>
+    <t>Driving Conduct and Traffic Signal Offenses</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">This rule applies to </t>
     </r>
@@ -2736,7 +2799,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2769,7 +2832,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2780,7 +2843,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2790,7 +2853,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2801,7 +2864,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2809,6 +2872,9 @@
     </r>
   </si>
   <si>
+    <t>Licensing and Age Requirement Offenses</t>
+  </si>
+  <si>
     <t>Provincial (applies under city and provincial traffic enforcement and licensing authorities)</t>
   </si>
   <si>
@@ -2820,7 +2886,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2830,7 +2896,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2841,7 +2907,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2851,7 +2917,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2872,7 +2938,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2883,7 +2949,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2893,7 +2959,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2904,7 +2970,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2928,7 +2994,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2939,7 +3005,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2947,6 +3013,9 @@
     </r>
   </si>
   <si>
+    <t>Licensing and Documentation Offenses</t>
+  </si>
+  <si>
     <t>Provincial (applies under city and provincial traffic and licensing departments)</t>
   </si>
   <si>
@@ -2958,7 +3027,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2974,7 +3043,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2984,7 +3053,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3000,7 +3069,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3027,7 +3096,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3038,7 +3107,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3046,6 +3115,9 @@
     </r>
   </si>
   <si>
+    <t>Licensing and Vehicle Category Offenses</t>
+  </si>
+  <si>
     <t>Provincial (applies under city and provincial traffic and licensing authorities)</t>
   </si>
   <si>
@@ -3057,7 +3129,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3073,7 +3145,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3083,7 +3155,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3099,7 +3171,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3117,7 +3189,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3128,7 +3200,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3155,7 +3227,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3166,7 +3238,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3174,6 +3246,9 @@
     </r>
   </si>
   <si>
+    <t>Public Health and Environmental Safety Offenses</t>
+  </si>
+  <si>
     <t>Federal and Provincial (applies nationwide under health and transport regulations)</t>
   </si>
   <si>
@@ -3185,7 +3260,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3201,7 +3276,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3211,7 +3286,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3232,7 +3307,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3243,7 +3318,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3270,7 +3345,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3281,7 +3356,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3291,7 +3366,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3302,7 +3377,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3310,6 +3385,9 @@
     </r>
   </si>
   <si>
+    <t>Public Cleanliness and Environmental Offenses</t>
+  </si>
+  <si>
     <t>Municipal (applies under city development and environmental authorities)</t>
   </si>
   <si>
@@ -3321,7 +3399,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3337,7 +3415,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3347,7 +3425,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3368,7 +3446,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3379,7 +3457,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3407,7 +3485,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3417,7 +3495,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3428,7 +3506,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3436,6 +3514,9 @@
     </r>
   </si>
   <si>
+    <t>Traffic Flow and Time Regulation Offenses</t>
+  </si>
+  <si>
     <t>Provincial and Municipal (applies under city and provincial traffic departments)</t>
   </si>
   <si>
@@ -3447,7 +3528,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3463,7 +3544,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3473,7 +3554,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3494,9 +3575,6 @@
   </si>
   <si>
     <t>Provincial Motor Vehicle Ordinance; City Traffic Restriction Orders; Municipal Transport Management Rules</t>
-  </si>
-  <si>
-    <t>Traffic Law</t>
   </si>
 </sst>
 </file>
@@ -3507,7 +3585,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3515,7 +3593,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3523,7 +3601,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3531,7 +3609,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3863,17 +3941,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B797"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A778" workbookViewId="0">
-      <selection activeCell="B788" sqref="B788"/>
+    <sheetView tabSelected="1" topLeftCell="A780" workbookViewId="0">
+      <selection activeCell="A785" sqref="A785:B797"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" customWidth="1"/>
+    <col min="2" max="2" width="48.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3881,7 +3959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3889,7 +3967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -3897,87 +3975,87 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5">
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
@@ -3985,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
@@ -3993,95 +4071,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22" s="5">
         <v>2023</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -4089,7 +4167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -4097,95 +4175,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38" s="2">
         <v>2023</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>0</v>
       </c>
@@ -4193,7 +4271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>2</v>
       </c>
@@ -4201,95 +4279,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B55" s="5">
         <v>2023</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="44.25" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>0</v>
       </c>
@@ -4297,7 +4375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>2</v>
       </c>
@@ -4305,95 +4383,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B71" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>0</v>
       </c>
@@ -4401,7 +4479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>2</v>
       </c>
@@ -4409,95 +4487,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B88" s="5">
         <v>2023</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="44.25" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>0</v>
       </c>
@@ -4505,7 +4583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>2</v>
       </c>
@@ -4513,95 +4591,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B104" s="5">
         <v>2023</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="44.25" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>0</v>
       </c>
@@ -4609,103 +4687,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B121" s="5">
         <v>2023</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>0</v>
       </c>
@@ -4713,103 +4791,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B142" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>0</v>
       </c>
@@ -4817,103 +4895,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>0</v>
       </c>
@@ -4921,103 +4999,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>0</v>
       </c>
@@ -5025,103 +5103,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>0</v>
       </c>
@@ -5129,103 +5207,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>0</v>
       </c>
@@ -5233,103 +5311,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>0</v>
       </c>
@@ -5337,103 +5415,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
         <v>0</v>
       </c>
@@ -5441,103 +5519,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
         <v>0</v>
       </c>
@@ -5545,103 +5623,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>0</v>
       </c>
@@ -5649,103 +5727,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
         <v>0</v>
       </c>
@@ -5753,103 +5831,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A311" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A312" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
         <v>0</v>
       </c>
@@ -5857,103 +5935,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A320" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A325" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A329" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A334" s="4" t="s">
         <v>0</v>
       </c>
@@ -5961,103 +6039,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A336" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A337" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A338" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A339" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A340" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A341" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A342" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A343" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A344" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A345" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A346" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A350" s="4" t="s">
         <v>0</v>
       </c>
@@ -6065,103 +6143,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A351" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A352" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A353" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A354" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A355" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A356" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A357" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A358" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A359" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A360" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A361" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A362" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>0</v>
       </c>
@@ -6169,103 +6247,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A382" s="4" t="s">
         <v>0</v>
       </c>
@@ -6273,7 +6351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A383" s="4" t="s">
         <v>2</v>
       </c>
@@ -6281,95 +6359,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A384" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A385" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A386" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A387" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A388" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A389" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A390" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A391" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A392" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A393" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A394" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A398" s="4" t="s">
         <v>0</v>
       </c>
@@ -6377,103 +6455,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A399" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A400" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A401" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A402" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A403" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A404" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A405" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A406" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A407" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A408" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A409" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A410" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A414" s="4" t="s">
         <v>0</v>
       </c>
@@ -6481,103 +6559,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A415" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A416" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A417" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A418" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A419" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A420" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A421" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A422" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A423" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A424" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A425" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B425" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A426" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B426" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A426" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B426" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A430" s="4" t="s">
         <v>0</v>
       </c>
@@ -6585,103 +6663,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A431" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A432" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A433" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A434" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A435" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="58.5" x14ac:dyDescent="0.2">
       <c r="A436" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A437" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A438" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A439" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A440" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A441" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A442" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A446" s="4" t="s">
         <v>0</v>
       </c>
@@ -6689,103 +6767,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A447" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="44.25" x14ac:dyDescent="0.2">
       <c r="A448" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A449" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A450" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A451" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="57.75" x14ac:dyDescent="0.2">
       <c r="A452" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A453" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A454" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A455" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A456" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A457" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A458" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A462" s="4" t="s">
         <v>0</v>
       </c>
@@ -6793,103 +6871,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A463" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="44.25" x14ac:dyDescent="0.2">
       <c r="A464" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A465" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A466" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A467" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" ht="58.5" x14ac:dyDescent="0.2">
       <c r="A468" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A469" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A470" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A471" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A472" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A473" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A474" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A479" s="4" t="s">
         <v>0</v>
       </c>
@@ -6897,103 +6975,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A480" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" ht="44.25" x14ac:dyDescent="0.2">
       <c r="A481" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A482" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A483" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A484" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A485" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A486" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A487" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A488" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A489" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A490" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A491" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A496" s="4" t="s">
         <v>0</v>
       </c>
@@ -7001,103 +7079,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A497" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" ht="44.25" x14ac:dyDescent="0.2">
       <c r="A498" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A499" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A500" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A501" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A502" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A503" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A504" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A505" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A506" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A507" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A508" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A512" s="4" t="s">
         <v>0</v>
       </c>
@@ -7105,103 +7183,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A513" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" ht="44.25" x14ac:dyDescent="0.2">
       <c r="A514" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A515" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A516" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A517" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" ht="58.5" x14ac:dyDescent="0.2">
       <c r="A518" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A519" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A520" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A521" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A522" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A523" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A524" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A528" s="4" t="s">
         <v>0</v>
       </c>
@@ -7209,103 +7287,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A529" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A530" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B530" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A531" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A532" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A533" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B533" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A534" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B534" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A535" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A536" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A537" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B537" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A538" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A539" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A540" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>0</v>
       </c>
@@ -7313,103 +7391,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A545" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A546" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B546" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A547" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A548" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A549" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B549" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A550" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A551" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A552" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A553" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B553" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A554" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A555" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A556" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A560" s="4" t="s">
         <v>0</v>
       </c>
@@ -7417,103 +7495,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A561" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" ht="44.25" x14ac:dyDescent="0.2">
       <c r="A562" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A563" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A564" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A565" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A566" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A567" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A568" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A569" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A570" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A571" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A572" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A577" s="3" t="s">
         <v>0</v>
       </c>
@@ -7521,103 +7599,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A578" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" ht="44.25" x14ac:dyDescent="0.2">
       <c r="A579" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A580" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A581" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A582" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A583" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A584" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A585" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A586" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A587" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A588" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A589" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A593" s="4" t="s">
         <v>0</v>
       </c>
@@ -7625,103 +7703,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A594" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B594" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" ht="44.25" x14ac:dyDescent="0.2">
       <c r="A595" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B595" s="5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A596" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B596" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A597" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A598" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B598" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" ht="58.5" x14ac:dyDescent="0.2">
       <c r="A599" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B599" s="5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A600" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B600" s="5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A601" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B601" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A602" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A603" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B603" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A604" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B604" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A605" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B605" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A610" s="4" t="s">
         <v>0</v>
       </c>
@@ -7729,103 +7807,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A611" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B611" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A612" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B612" s="5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A613" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B613" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="614" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A614" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B614" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A615" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B615" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" ht="44.25" x14ac:dyDescent="0.2">
       <c r="A616" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B616" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A617" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B617" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A618" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B618" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A619" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B619" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="620" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A620" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B620" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="621" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A621" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B621" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="622" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A622" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B622" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A627" s="4" t="s">
         <v>0</v>
       </c>
@@ -7833,103 +7911,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A628" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B628" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="629" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A629" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B629" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A630" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B630" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="631" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A631" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B631" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A632" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B632" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="633" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" ht="59.25" x14ac:dyDescent="0.2">
       <c r="A633" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B633" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A634" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B634" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="635" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A635" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B635" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="636" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A636" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="637" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A637" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B637" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="638" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A638" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B638" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="639" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A639" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B639" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A644" s="4" t="s">
         <v>0</v>
       </c>
@@ -7937,103 +8015,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A645" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B645" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="646" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A646" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B646" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A647" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B647" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="648" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A648" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B648" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A649" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B649" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="650" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" ht="58.5" x14ac:dyDescent="0.2">
       <c r="A650" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B650" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="651" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A651" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B651" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="652" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A652" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B652" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="653" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A653" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="654" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A654" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B654" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A655" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B655" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="656" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A656" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B656" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A661" s="4" t="s">
         <v>0</v>
       </c>
@@ -8041,103 +8119,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A662" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B662" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="663" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A663" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B663" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A664" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B664" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="665" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A665" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B665" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="666" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A666" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B666" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="667" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" ht="58.5" x14ac:dyDescent="0.2">
       <c r="A667" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B667" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="668" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A668" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B668" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="669" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A669" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B669" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="670" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A670" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B670" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="671" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A671" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B671" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="672" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A672" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B672" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="673" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A673" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B673" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A677" s="4" t="s">
         <v>0</v>
       </c>
@@ -8145,103 +8223,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A678" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B678" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="679" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A679" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B679" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A680" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B680" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="681" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A681" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B681" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A682" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B682" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="683" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A683" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B683" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A684" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B684" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="685" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A685" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B685" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="686" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A686" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="687" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A687" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B687" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="688" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A688" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B688" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="689" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A689" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B689" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A693" s="4" t="s">
         <v>0</v>
       </c>
@@ -8249,103 +8327,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A694" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B694" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="695" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A695" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B695" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A696" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B696" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="697" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A697" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B697" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A698" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B698" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="699" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A699" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B699" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A700" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B700" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="701" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A701" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B701" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="702" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A702" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B702" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="703" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A703" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B703" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="704" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A704" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B704" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="705" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A705" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B705" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A709" s="4" t="s">
         <v>0</v>
       </c>
@@ -8353,103 +8431,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A710" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B710" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="711" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" ht="44.25" x14ac:dyDescent="0.2">
       <c r="A711" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B711" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A712" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B712" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="713" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A713" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B713" s="5" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A714" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B714" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="715" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" ht="59.25" x14ac:dyDescent="0.2">
       <c r="A715" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B715" s="5" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="716" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A716" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B716" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="717" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A717" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B717" s="5" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="718" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A718" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="719" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A719" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B719" s="5" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="720" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A720" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B720" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="721" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A721" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B721" s="5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A725" s="4" t="s">
         <v>0</v>
       </c>
@@ -8457,103 +8535,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A726" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B726" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="727" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A727" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B727" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A728" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B728" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="729" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A729" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B729" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="730" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A730" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B730" s="5" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="731" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" ht="58.5" x14ac:dyDescent="0.2">
       <c r="A731" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B731" s="5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="732" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A732" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B732" s="5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="733" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A733" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B733" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="734" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A734" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B734" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="735" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A735" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B735" s="5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="736" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A736" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B736" s="5" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="737" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A737" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B737" s="5" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A741" s="4" t="s">
         <v>0</v>
       </c>
@@ -8561,103 +8639,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A742" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B742" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="743" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A743" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B743" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A744" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B744" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="745" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A745" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B745" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="746" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A746" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B746" s="5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="747" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" ht="58.5" x14ac:dyDescent="0.2">
       <c r="A747" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B747" s="5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="748" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A748" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B748" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="749" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A749" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B749" s="5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="750" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A750" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B750" s="4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="751" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A751" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B751" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="752" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A752" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B752" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="753" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A753" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B753" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A756" s="4" t="s">
         <v>0</v>
       </c>
@@ -8665,103 +8743,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A757" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B757" s="5" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="758" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A758" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B758" s="4" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A759" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B759" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A760" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B760" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A761" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B761" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" ht="58.5" x14ac:dyDescent="0.2">
+      <c r="A762" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B762" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A763" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B763" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A764" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B764" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A765" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B765" s="4" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="760" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A760" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B760" s="5" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="761" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A761" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B761" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="762" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A762" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B762" s="5" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="763" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A763" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B763" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="764" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A764" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B764" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="765" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A765" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B765" s="4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="766" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A766" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B766" s="5" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="767" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A767" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B767" s="5" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="768" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A768" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B768" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A771" s="4" t="s">
         <v>0</v>
       </c>
@@ -8769,103 +8847,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A772" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B772" s="5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="773" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A773" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B773" s="4" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A774" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B774" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="775" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A775" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B775" s="5" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="776" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A776" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B776" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="777" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" ht="59.25" x14ac:dyDescent="0.2">
       <c r="A777" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B777" s="5" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="778" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A778" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B778" s="5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="779" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A779" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B779" s="5" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="780" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A780" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B780" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="781" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A781" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B781" s="5" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="782" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A782" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B782" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="783" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A783" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B783" s="5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A785" s="4" t="s">
         <v>0</v>
       </c>
@@ -8873,100 +8951,100 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A786" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B786" s="5" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="787" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A787" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B787" s="5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A788" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B788" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="789" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A789" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B789" s="5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A790" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B790" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="791" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" ht="58.5" x14ac:dyDescent="0.2">
       <c r="A791" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B791" s="5" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="792" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A792" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B792" s="5" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="793" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A793" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B793" s="5" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="794" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A794" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B794" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="795" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A795" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B795" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="796" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A796" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B796" s="5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="797" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A797" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B797" s="5" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
